--- a/sp_history0612.xlsx
+++ b/sp_history0612.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -351,6 +351,39 @@
   </si>
   <si>
     <t>2025-06-11 20:59:39</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:51</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:52</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:54</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:55</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:57</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:58</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:51:59</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:52:01</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:52:02</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:52:04</t>
+  </si>
+  <si>
+    <t>2025-06-11 21:52:05</t>
   </si>
 </sst>
 </file>
@@ -9985,6 +10018,1018 @@
         <v>30168993</v>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>112</v>
+      </c>
+      <c r="B406" t="s">
+        <v>8</v>
+      </c>
+      <c r="C406">
+        <v>40</v>
+      </c>
+      <c r="D406">
+        <v>87</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406">
+        <v>444931</v>
+      </c>
+      <c r="G406">
+        <v>4087444931</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>112</v>
+      </c>
+      <c r="B407" t="s">
+        <v>9</v>
+      </c>
+      <c r="C407">
+        <v>40</v>
+      </c>
+      <c r="D407">
+        <v>87</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407">
+        <v>445822</v>
+      </c>
+      <c r="G407">
+        <v>4087445822</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>112</v>
+      </c>
+      <c r="B408" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408">
+        <v>40</v>
+      </c>
+      <c r="D408">
+        <v>88</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408">
+        <v>534861</v>
+      </c>
+      <c r="G408">
+        <v>4088534861</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>112</v>
+      </c>
+      <c r="B409" t="s">
+        <v>11</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>87</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>464340</v>
+      </c>
+      <c r="G409">
+        <v>87464340</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>113</v>
+      </c>
+      <c r="B410" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410">
+        <v>28</v>
+      </c>
+      <c r="D410">
+        <v>86</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>484299</v>
+      </c>
+      <c r="G410">
+        <v>2886484299</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>113</v>
+      </c>
+      <c r="B411" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411">
+        <v>28</v>
+      </c>
+      <c r="D411">
+        <v>81</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>484107</v>
+      </c>
+      <c r="G411">
+        <v>2881484107</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>113</v>
+      </c>
+      <c r="B412" t="s">
+        <v>10</v>
+      </c>
+      <c r="C412">
+        <v>28</v>
+      </c>
+      <c r="D412">
+        <v>86</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>586744</v>
+      </c>
+      <c r="G412">
+        <v>2886586744</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>113</v>
+      </c>
+      <c r="B413" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>81</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>477756</v>
+      </c>
+      <c r="G413">
+        <v>81477756</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>114</v>
+      </c>
+      <c r="B414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414">
+        <v>30</v>
+      </c>
+      <c r="D414">
+        <v>84</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>427802</v>
+      </c>
+      <c r="G414">
+        <v>3084427802</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>114</v>
+      </c>
+      <c r="B415" t="s">
+        <v>9</v>
+      </c>
+      <c r="C415">
+        <v>30</v>
+      </c>
+      <c r="D415">
+        <v>84</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>434720</v>
+      </c>
+      <c r="G415">
+        <v>3084434720</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>114</v>
+      </c>
+      <c r="B416" t="s">
+        <v>10</v>
+      </c>
+      <c r="C416">
+        <v>30</v>
+      </c>
+      <c r="D416">
+        <v>88</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>524561</v>
+      </c>
+      <c r="G416">
+        <v>3088524561</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>114</v>
+      </c>
+      <c r="B417" t="s">
+        <v>11</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>84</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>449274</v>
+      </c>
+      <c r="G417">
+        <v>84449274</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>115</v>
+      </c>
+      <c r="B418" t="s">
+        <v>8</v>
+      </c>
+      <c r="C418">
+        <v>23</v>
+      </c>
+      <c r="D418">
+        <v>79</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>412493</v>
+      </c>
+      <c r="G418">
+        <v>2379412493</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>115</v>
+      </c>
+      <c r="B419" t="s">
+        <v>9</v>
+      </c>
+      <c r="C419">
+        <v>23</v>
+      </c>
+      <c r="D419">
+        <v>74</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>461780</v>
+      </c>
+      <c r="G419">
+        <v>2374461780</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>115</v>
+      </c>
+      <c r="B420" t="s">
+        <v>10</v>
+      </c>
+      <c r="C420">
+        <v>23</v>
+      </c>
+      <c r="D420">
+        <v>88</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>563317</v>
+      </c>
+      <c r="G420">
+        <v>2388563317</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>115</v>
+      </c>
+      <c r="B421" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>76</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>458453</v>
+      </c>
+      <c r="G421">
+        <v>76458453</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>116</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422">
+        <v>23</v>
+      </c>
+      <c r="D422">
+        <v>85</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>516562</v>
+      </c>
+      <c r="G422">
+        <v>2385516562</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>116</v>
+      </c>
+      <c r="B423" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423">
+        <v>23</v>
+      </c>
+      <c r="D423">
+        <v>85</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>534300</v>
+      </c>
+      <c r="G423">
+        <v>2385534300</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>116</v>
+      </c>
+      <c r="B424" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424">
+        <v>23</v>
+      </c>
+      <c r="D424">
+        <v>88</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>622507</v>
+      </c>
+      <c r="G424">
+        <v>2388622507</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>116</v>
+      </c>
+      <c r="B425" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>88</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>532271</v>
+      </c>
+      <c r="G425">
+        <v>88532271</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>117</v>
+      </c>
+      <c r="B426" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426">
+        <v>27</v>
+      </c>
+      <c r="D426">
+        <v>76</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>486716</v>
+      </c>
+      <c r="G426">
+        <v>2776486716</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>117</v>
+      </c>
+      <c r="B427" t="s">
+        <v>9</v>
+      </c>
+      <c r="C427">
+        <v>27</v>
+      </c>
+      <c r="D427">
+        <v>76</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>484447</v>
+      </c>
+      <c r="G427">
+        <v>2776484447</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>117</v>
+      </c>
+      <c r="B428" t="s">
+        <v>10</v>
+      </c>
+      <c r="C428">
+        <v>27</v>
+      </c>
+      <c r="D428">
+        <v>84</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>546400</v>
+      </c>
+      <c r="G428">
+        <v>2784546400</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>117</v>
+      </c>
+      <c r="B429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>79</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>465609</v>
+      </c>
+      <c r="G429">
+        <v>79465609</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>118</v>
+      </c>
+      <c r="B430" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430">
+        <v>27</v>
+      </c>
+      <c r="D430">
+        <v>87</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>526242</v>
+      </c>
+      <c r="G430">
+        <v>2787526242</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>118</v>
+      </c>
+      <c r="B431" t="s">
+        <v>9</v>
+      </c>
+      <c r="C431">
+        <v>27</v>
+      </c>
+      <c r="D431">
+        <v>87</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>514749</v>
+      </c>
+      <c r="G431">
+        <v>2787514749</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>118</v>
+      </c>
+      <c r="B432" t="s">
+        <v>10</v>
+      </c>
+      <c r="C432">
+        <v>27</v>
+      </c>
+      <c r="D432">
+        <v>88</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>621461</v>
+      </c>
+      <c r="G432">
+        <v>2788621461</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>118</v>
+      </c>
+      <c r="B433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>87</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>520894</v>
+      </c>
+      <c r="G433">
+        <v>87520894</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>119</v>
+      </c>
+      <c r="B434" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434">
+        <v>32</v>
+      </c>
+      <c r="D434">
+        <v>70</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>350731</v>
+      </c>
+      <c r="G434">
+        <v>3270350731</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>119</v>
+      </c>
+      <c r="B435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435">
+        <v>32</v>
+      </c>
+      <c r="D435">
+        <v>82</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>360380</v>
+      </c>
+      <c r="G435">
+        <v>3282360380</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>119</v>
+      </c>
+      <c r="B436" t="s">
+        <v>10</v>
+      </c>
+      <c r="C436">
+        <v>32</v>
+      </c>
+      <c r="D436">
+        <v>85</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>434790</v>
+      </c>
+      <c r="G436">
+        <v>3285434790</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>119</v>
+      </c>
+      <c r="B437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>78</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>357354</v>
+      </c>
+      <c r="G437">
+        <v>78357354</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>120</v>
+      </c>
+      <c r="B438" t="s">
+        <v>8</v>
+      </c>
+      <c r="C438">
+        <v>30</v>
+      </c>
+      <c r="D438">
+        <v>88</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>480650</v>
+      </c>
+      <c r="G438">
+        <v>3088480650</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>120</v>
+      </c>
+      <c r="B439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439">
+        <v>30</v>
+      </c>
+      <c r="D439">
+        <v>88</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>477653</v>
+      </c>
+      <c r="G439">
+        <v>3088477653</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>120</v>
+      </c>
+      <c r="B440" t="s">
+        <v>10</v>
+      </c>
+      <c r="C440">
+        <v>30</v>
+      </c>
+      <c r="D440">
+        <v>88</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>559684</v>
+      </c>
+      <c r="G440">
+        <v>3088559684</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>120</v>
+      </c>
+      <c r="B441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>88</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>482867</v>
+      </c>
+      <c r="G441">
+        <v>88482867</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>121</v>
+      </c>
+      <c r="B442" t="s">
+        <v>8</v>
+      </c>
+      <c r="C442">
+        <v>35</v>
+      </c>
+      <c r="D442">
+        <v>86</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>560265</v>
+      </c>
+      <c r="G442">
+        <v>3586560265</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>121</v>
+      </c>
+      <c r="B443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C443">
+        <v>35</v>
+      </c>
+      <c r="D443">
+        <v>86</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>552405</v>
+      </c>
+      <c r="G443">
+        <v>3586552405</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>121</v>
+      </c>
+      <c r="B444" t="s">
+        <v>10</v>
+      </c>
+      <c r="C444">
+        <v>35</v>
+      </c>
+      <c r="D444">
+        <v>88</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>643851</v>
+      </c>
+      <c r="G444">
+        <v>3588643851</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>121</v>
+      </c>
+      <c r="B445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>88</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>564672</v>
+      </c>
+      <c r="G445">
+        <v>88564672</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>122</v>
+      </c>
+      <c r="B446" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446">
+        <v>44</v>
+      </c>
+      <c r="D446">
+        <v>88</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>570666</v>
+      </c>
+      <c r="G446">
+        <v>4488570666</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>122</v>
+      </c>
+      <c r="B447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447">
+        <v>44</v>
+      </c>
+      <c r="D447">
+        <v>88</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>553147</v>
+      </c>
+      <c r="G447">
+        <v>4488553147</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>122</v>
+      </c>
+      <c r="B448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C448">
+        <v>44</v>
+      </c>
+      <c r="D448">
+        <v>88</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>648132</v>
+      </c>
+      <c r="G448">
+        <v>4488648132</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>122</v>
+      </c>
+      <c r="B449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>88</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>548370</v>
+      </c>
+      <c r="G449">
+        <v>88548370</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>